--- a/psychopy_experiment/conditions/conditions.xlsx
+++ b/psychopy_experiment/conditions/conditions.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erang\Desktop\Reading_task\conditions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erang\Desktop\Reading_task\psychopy_experiment\conditions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C393B3A9-96BD-4356-AC58-F3B0E0D2F127}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D865BFD-4DDA-4AFF-A1FC-A1F2803EE457}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
   <si>
     <t>PID</t>
   </si>
@@ -369,10 +369,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -436,6 +436,17 @@
         <v>3</v>
       </c>
     </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/psychopy_experiment/conditions/conditions.xlsx
+++ b/psychopy_experiment/conditions/conditions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erang\Desktop\Reading_task\psychopy_experiment\conditions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D865BFD-4DDA-4AFF-A1FC-A1F2803EE457}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09CE519E-80A3-4F8A-9E1F-EE4A4D9BC3B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
   <si>
     <t>PID</t>
   </si>
@@ -52,6 +52,12 @@
   </si>
   <si>
     <t>R4</t>
+  </si>
+  <si>
+    <t>practice1</t>
+  </si>
+  <si>
+    <t>practice2</t>
   </si>
 </sst>
 </file>
@@ -369,10 +375,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -394,10 +400,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -405,10 +411,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
@@ -419,7 +425,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
@@ -430,7 +436,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
         <v>3</v>
@@ -438,16 +444,41 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8">
         <v>2</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B8" t="s">
         <v>2</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C8" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C8">
+    <sortCondition ref="A1:A8"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/psychopy_experiment/conditions/conditions.xlsx
+++ b/psychopy_experiment/conditions/conditions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erang\Desktop\Reading_task\psychopy_experiment\conditions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09CE519E-80A3-4F8A-9E1F-EE4A4D9BC3B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8BD1F0C-821B-44F9-A4B5-7D10B708173E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="11">
   <si>
     <t>PID</t>
   </si>
@@ -375,10 +375,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -475,6 +475,39 @@
         <v>3</v>
       </c>
     </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C8">
     <sortCondition ref="A1:A8"/>

--- a/psychopy_experiment/conditions/conditions.xlsx
+++ b/psychopy_experiment/conditions/conditions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erang\Desktop\Reading_task\psychopy_experiment\conditions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8BD1F0C-821B-44F9-A4B5-7D10B708173E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03FED074-9014-4D4E-8F4F-977E764A2D85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="11">
   <si>
     <t>PID</t>
   </si>
@@ -375,10 +375,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -508,6 +508,94 @@
         <v>4</v>
       </c>
     </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>3</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>4</v>
+      </c>
+      <c r="B16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>4</v>
+      </c>
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>4</v>
+      </c>
+      <c r="B18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>4</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C8">
     <sortCondition ref="A1:A8"/>

--- a/psychopy_experiment/conditions/conditions.xlsx
+++ b/psychopy_experiment/conditions/conditions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erang\Desktop\Reading_task\psychopy_experiment\conditions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03FED074-9014-4D4E-8F4F-977E764A2D85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1E3078D-2759-439E-B6F4-E63E35A675E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="11">
   <si>
     <t>PID</t>
   </si>
@@ -375,10 +375,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -596,6 +596,50 @@
         <v>4</v>
       </c>
     </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>5</v>
+      </c>
+      <c r="B20" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>5</v>
+      </c>
+      <c r="B21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>5</v>
+      </c>
+      <c r="B22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>5</v>
+      </c>
+      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C8">
     <sortCondition ref="A1:A8"/>

--- a/psychopy_experiment/conditions/conditions.xlsx
+++ b/psychopy_experiment/conditions/conditions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erang\Desktop\Reading_task\psychopy_experiment\conditions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1E3078D-2759-439E-B6F4-E63E35A675E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0E81645-09B4-44EC-9745-ECF0DA743DE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="11">
   <si>
     <t>PID</t>
   </si>
@@ -375,9 +375,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
@@ -640,6 +640,50 @@
         <v>4</v>
       </c>
     </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>6</v>
+      </c>
+      <c r="B24" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>6</v>
+      </c>
+      <c r="B25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>6</v>
+      </c>
+      <c r="B26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>6</v>
+      </c>
+      <c r="B27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C8">
     <sortCondition ref="A1:A8"/>

--- a/psychopy_experiment/conditions/conditions.xlsx
+++ b/psychopy_experiment/conditions/conditions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erang\Desktop\Reading_task\psychopy_experiment\conditions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0E81645-09B4-44EC-9745-ECF0DA743DE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F47F968-968A-4394-9CDE-CE0AE8B75D57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="15">
   <si>
     <t>PID</t>
   </si>
@@ -58,16 +58,34 @@
   </si>
   <si>
     <t>practice2</t>
+  </si>
+  <si>
+    <t>R5</t>
+  </si>
+  <si>
+    <t>R6</t>
+  </si>
+  <si>
+    <t>R7</t>
+  </si>
+  <si>
+    <t>R8</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -375,10 +393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -684,10 +702,55 @@
         <v>3</v>
       </c>
     </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>7</v>
+      </c>
+      <c r="B28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>7</v>
+      </c>
+      <c r="B29" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>7</v>
+      </c>
+      <c r="B30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>7</v>
+      </c>
+      <c r="B31" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C8">
     <sortCondition ref="A1:A8"/>
   </sortState>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/psychopy_experiment/conditions/conditions.xlsx
+++ b/psychopy_experiment/conditions/conditions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erang\Desktop\Reading_task\psychopy_experiment\conditions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F47F968-968A-4394-9CDE-CE0AE8B75D57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06D4B580-CA7A-4CA4-B037-1E29C7695BB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="15">
   <si>
     <t>PID</t>
   </si>
@@ -393,10 +393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -746,6 +746,138 @@
         <v>3</v>
       </c>
     </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>8</v>
+      </c>
+      <c r="B32" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>8</v>
+      </c>
+      <c r="B33" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>8</v>
+      </c>
+      <c r="B34" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>8</v>
+      </c>
+      <c r="B35" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>10</v>
+      </c>
+      <c r="B36" t="s">
+        <v>2</v>
+      </c>
+      <c r="C36" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>10</v>
+      </c>
+      <c r="B37" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>10</v>
+      </c>
+      <c r="B38" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>10</v>
+      </c>
+      <c r="B39" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>9</v>
+      </c>
+      <c r="B40" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>9</v>
+      </c>
+      <c r="B41" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>9</v>
+      </c>
+      <c r="B42" t="s">
+        <v>13</v>
+      </c>
+      <c r="C42" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>9</v>
+      </c>
+      <c r="B43" t="s">
+        <v>14</v>
+      </c>
+      <c r="C43" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C8">
     <sortCondition ref="A1:A8"/>

--- a/psychopy_experiment/conditions/conditions.xlsx
+++ b/psychopy_experiment/conditions/conditions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erang\Desktop\Reading_task\psychopy_experiment\conditions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06D4B580-CA7A-4CA4-B037-1E29C7695BB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C98D3B50-0C3F-4C81-8254-3DFD4CA2DE91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="16">
   <si>
     <t>PID</t>
   </si>
@@ -70,6 +70,9 @@
   </si>
   <si>
     <t>R8</t>
+  </si>
+  <si>
+    <t>Index</t>
   </si>
 </sst>
 </file>
@@ -393,494 +396,623 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C43"/>
+  <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="16.44140625" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" customWidth="1"/>
+    <col min="3" max="3" width="16.44140625" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
         <v>-1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
         <v>-1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
         <v>1</v>
       </c>
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
       <c r="C4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
         <v>1</v>
       </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
       <c r="C5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
         <v>1</v>
       </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
       <c r="C6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
         <v>1</v>
       </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
       <c r="C7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>2</v>
-      </c>
-      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>2</v>
-      </c>
-      <c r="B9" t="s">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+      <c r="D9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>2</v>
-      </c>
-      <c r="B10" t="s">
-        <v>7</v>
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="D10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>2</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="D11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>3</v>
-      </c>
-      <c r="B12" t="s">
-        <v>2</v>
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
       </c>
       <c r="C12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>3</v>
-      </c>
-      <c r="B13" t="s">
-        <v>6</v>
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+      <c r="D13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>3</v>
-      </c>
-      <c r="B14" t="s">
-        <v>7</v>
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
       </c>
       <c r="C14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="D14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>3</v>
-      </c>
-      <c r="B15" t="s">
-        <v>8</v>
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
       </c>
       <c r="C15" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="D15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>4</v>
-      </c>
-      <c r="B16" t="s">
-        <v>2</v>
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="D16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>4</v>
-      </c>
-      <c r="B17" t="s">
-        <v>6</v>
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
       </c>
       <c r="C17" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+      <c r="D17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>4</v>
-      </c>
-      <c r="B18" t="s">
-        <v>7</v>
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>4</v>
       </c>
       <c r="C18" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="D18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>4</v>
-      </c>
-      <c r="B19" t="s">
-        <v>8</v>
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>4</v>
       </c>
       <c r="C19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="D19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
         <v>5</v>
       </c>
-      <c r="B20" t="s">
-        <v>2</v>
-      </c>
       <c r="C20" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="D20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
         <v>5</v>
       </c>
-      <c r="B21" t="s">
-        <v>6</v>
-      </c>
       <c r="C21" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+      <c r="D21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
         <v>5</v>
       </c>
-      <c r="B22" t="s">
-        <v>7</v>
-      </c>
       <c r="C22" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="D22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
         <v>5</v>
       </c>
-      <c r="B23" t="s">
-        <v>8</v>
-      </c>
       <c r="C23" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="D23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>6</v>
-      </c>
-      <c r="B24" t="s">
-        <v>2</v>
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>6</v>
       </c>
       <c r="C24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="D24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>6</v>
-      </c>
-      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25">
         <v>6</v>
       </c>
       <c r="C25" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+      <c r="D25" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>6</v>
-      </c>
-      <c r="B26" t="s">
-        <v>7</v>
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>6</v>
       </c>
       <c r="C26" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="D26" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>6</v>
-      </c>
-      <c r="B27" t="s">
-        <v>8</v>
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>6</v>
       </c>
       <c r="C27" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="D27" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>7</v>
-      </c>
-      <c r="B28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>7</v>
+      </c>
+      <c r="C28" t="s">
         <v>11</v>
       </c>
-      <c r="C28" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D28" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>7</v>
-      </c>
-      <c r="B29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>7</v>
+      </c>
+      <c r="C29" t="s">
         <v>12</v>
       </c>
-      <c r="C29" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D29" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>7</v>
-      </c>
-      <c r="B30" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>7</v>
+      </c>
+      <c r="C30" t="s">
         <v>13</v>
       </c>
-      <c r="C30" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D30" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>7</v>
-      </c>
-      <c r="B31" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>7</v>
+      </c>
+      <c r="C31" t="s">
         <v>14</v>
       </c>
-      <c r="C31" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D31" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>8</v>
-      </c>
-      <c r="B32" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>8</v>
+      </c>
+      <c r="C32" t="s">
         <v>11</v>
       </c>
-      <c r="C32" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D32" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>8</v>
-      </c>
-      <c r="B33" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>8</v>
+      </c>
+      <c r="C33" t="s">
         <v>12</v>
       </c>
-      <c r="C33" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D33" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>8</v>
-      </c>
-      <c r="B34" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>8</v>
+      </c>
+      <c r="C34" t="s">
         <v>13</v>
       </c>
-      <c r="C34" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D34" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>8</v>
-      </c>
-      <c r="B35" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>8</v>
+      </c>
+      <c r="C35" t="s">
         <v>14</v>
       </c>
-      <c r="C35" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D35" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
         <v>10</v>
       </c>
-      <c r="B36" t="s">
-        <v>2</v>
-      </c>
       <c r="C36" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="D36" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
         <v>10</v>
       </c>
-      <c r="B37" t="s">
-        <v>6</v>
-      </c>
       <c r="C37" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+      <c r="D37" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
         <v>10</v>
       </c>
-      <c r="B38" t="s">
-        <v>7</v>
-      </c>
       <c r="C38" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="D38" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
         <v>10</v>
       </c>
-      <c r="B39" t="s">
-        <v>8</v>
-      </c>
       <c r="C39" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="D39" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
         <v>9</v>
       </c>
-      <c r="B40" t="s">
+      <c r="C40" t="s">
         <v>11</v>
       </c>
-      <c r="C40" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D40" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
         <v>9</v>
       </c>
-      <c r="B41" t="s">
+      <c r="C41" t="s">
         <v>12</v>
       </c>
-      <c r="C41" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D41" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42">
         <v>9</v>
       </c>
-      <c r="B42" t="s">
+      <c r="C42" t="s">
         <v>13</v>
       </c>
-      <c r="C42" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D42" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43">
         <v>9</v>
       </c>
-      <c r="B43" t="s">
+      <c r="C43" t="s">
         <v>14</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C8">
-    <sortCondition ref="A1:A8"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:D8">
+    <sortCondition ref="B1:B8"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/psychopy_experiment/conditions/conditions.xlsx
+++ b/psychopy_experiment/conditions/conditions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erang\Desktop\Reading_task\psychopy_experiment\conditions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C98D3B50-0C3F-4C81-8254-3DFD4CA2DE91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{472964FA-0148-4C7D-875B-0FB98DBFC135}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
   <si>
     <t>PID</t>
   </si>
@@ -396,10 +396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D43"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -511,13 +511,13 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -525,13 +525,13 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -539,13 +539,13 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -553,466 +553,18 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12">
         <v>3</v>
       </c>
-      <c r="C12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>3</v>
-      </c>
-      <c r="C13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>3</v>
-      </c>
-      <c r="C14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <v>3</v>
-      </c>
-      <c r="C15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>4</v>
-      </c>
-      <c r="C16" t="s">
-        <v>2</v>
-      </c>
-      <c r="D16" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>4</v>
-      </c>
-      <c r="C17" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18">
-        <v>4</v>
-      </c>
-      <c r="C18" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19">
-        <v>4</v>
-      </c>
-      <c r="C19" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20">
-        <v>5</v>
-      </c>
-      <c r="C20" t="s">
-        <v>2</v>
-      </c>
-      <c r="D20" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21">
-        <v>5</v>
-      </c>
-      <c r="C21" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22">
-        <v>5</v>
-      </c>
-      <c r="C22" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23">
-        <v>5</v>
-      </c>
-      <c r="C23" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24">
-        <v>6</v>
-      </c>
-      <c r="C24" t="s">
-        <v>2</v>
-      </c>
-      <c r="D24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25">
-        <v>6</v>
-      </c>
-      <c r="C25" t="s">
-        <v>6</v>
-      </c>
-      <c r="D25" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26">
-        <v>6</v>
-      </c>
-      <c r="C26" t="s">
-        <v>7</v>
-      </c>
-      <c r="D26" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27">
-        <v>6</v>
-      </c>
-      <c r="C27" t="s">
-        <v>8</v>
-      </c>
-      <c r="D27" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="B28">
-        <v>7</v>
-      </c>
-      <c r="C28" t="s">
-        <v>11</v>
-      </c>
-      <c r="D28" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="B29">
-        <v>7</v>
-      </c>
-      <c r="C29" t="s">
-        <v>12</v>
-      </c>
-      <c r="D29" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30">
-        <v>29</v>
-      </c>
-      <c r="B30">
-        <v>7</v>
-      </c>
-      <c r="C30" t="s">
-        <v>13</v>
-      </c>
-      <c r="D30" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31">
-        <v>30</v>
-      </c>
-      <c r="B31">
-        <v>7</v>
-      </c>
-      <c r="C31" t="s">
-        <v>14</v>
-      </c>
-      <c r="D31" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32">
-        <v>31</v>
-      </c>
-      <c r="B32">
-        <v>8</v>
-      </c>
-      <c r="C32" t="s">
-        <v>11</v>
-      </c>
-      <c r="D32" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33">
-        <v>32</v>
-      </c>
-      <c r="B33">
-        <v>8</v>
-      </c>
-      <c r="C33" t="s">
-        <v>12</v>
-      </c>
-      <c r="D33" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34">
-        <v>33</v>
-      </c>
-      <c r="B34">
-        <v>8</v>
-      </c>
-      <c r="C34" t="s">
-        <v>13</v>
-      </c>
-      <c r="D34" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35">
-        <v>34</v>
-      </c>
-      <c r="B35">
-        <v>8</v>
-      </c>
-      <c r="C35" t="s">
-        <v>14</v>
-      </c>
-      <c r="D35" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36">
-        <v>35</v>
-      </c>
-      <c r="B36">
-        <v>10</v>
-      </c>
-      <c r="C36" t="s">
-        <v>2</v>
-      </c>
-      <c r="D36" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37">
-        <v>36</v>
-      </c>
-      <c r="B37">
-        <v>10</v>
-      </c>
-      <c r="C37" t="s">
-        <v>6</v>
-      </c>
-      <c r="D37" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38">
-        <v>37</v>
-      </c>
-      <c r="B38">
-        <v>10</v>
-      </c>
-      <c r="C38" t="s">
-        <v>7</v>
-      </c>
-      <c r="D38" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39">
-        <v>38</v>
-      </c>
-      <c r="B39">
-        <v>10</v>
-      </c>
-      <c r="C39" t="s">
-        <v>8</v>
-      </c>
-      <c r="D39" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40">
-        <v>39</v>
-      </c>
-      <c r="B40">
-        <v>9</v>
-      </c>
-      <c r="C40" t="s">
-        <v>11</v>
-      </c>
-      <c r="D40" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41">
-        <v>40</v>
-      </c>
-      <c r="B41">
-        <v>9</v>
-      </c>
-      <c r="C41" t="s">
-        <v>12</v>
-      </c>
-      <c r="D41" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42">
-        <v>41</v>
-      </c>
-      <c r="B42">
-        <v>9</v>
-      </c>
-      <c r="C42" t="s">
-        <v>13</v>
-      </c>
-      <c r="D42" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43">
-        <v>42</v>
-      </c>
-      <c r="B43">
-        <v>9</v>
-      </c>
-      <c r="C43" t="s">
-        <v>14</v>
-      </c>
-      <c r="D43" t="s">
-        <v>4</v>
-      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:D8">
-    <sortCondition ref="B1:B8"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:D7">
+    <sortCondition ref="B1:B7"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/psychopy_experiment/conditions/conditions.xlsx
+++ b/psychopy_experiment/conditions/conditions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erang\Desktop\Reading_task\psychopy_experiment\conditions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{472964FA-0148-4C7D-875B-0FB98DBFC135}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11AA3567-C11E-4C12-B429-7213B98FD5D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="16">
   <si>
     <t>PID</t>
   </si>
@@ -396,10 +396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="T12" sqref="T12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -562,6 +562,118 @@
         <v>3</v>
       </c>
     </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:D7">
     <sortCondition ref="B1:B7"/>

--- a/psychopy_experiment/conditions/conditions.xlsx
+++ b/psychopy_experiment/conditions/conditions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erang\Desktop\Reading_task\psychopy_experiment\conditions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11AA3567-C11E-4C12-B429-7213B98FD5D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{094DEFDB-2740-405E-B6A4-CFC867235396}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="16">
   <si>
     <t>PID</t>
   </si>
@@ -396,10 +396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T12" sqref="T12"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -674,6 +674,230 @@
         <v>4</v>
       </c>
     </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="C21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>3</v>
+      </c>
+      <c r="C23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>3</v>
+      </c>
+      <c r="C24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>3</v>
+      </c>
+      <c r="C25" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>3</v>
+      </c>
+      <c r="C26" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>3</v>
+      </c>
+      <c r="C27" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>4</v>
+      </c>
+      <c r="C28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D28" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="C29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>4</v>
+      </c>
+      <c r="C30" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>4</v>
+      </c>
+      <c r="C31" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>4</v>
+      </c>
+      <c r="C32" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>4</v>
+      </c>
+      <c r="C33" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>4</v>
+      </c>
+      <c r="C34" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>4</v>
+      </c>
+      <c r="C35" t="s">
+        <v>14</v>
+      </c>
+      <c r="D35" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:D7">
     <sortCondition ref="B1:B7"/>

--- a/psychopy_experiment/conditions/conditions.xlsx
+++ b/psychopy_experiment/conditions/conditions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erang\Desktop\Reading_task\psychopy_experiment\conditions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{094DEFDB-2740-405E-B6A4-CFC867235396}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{025483BA-FA18-4C16-BD3D-2BBF226821F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="16">
   <si>
     <t>PID</t>
   </si>
@@ -396,10 +396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:D67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="C75" sqref="C75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -898,6 +898,454 @@
         <v>3</v>
       </c>
     </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>5</v>
+      </c>
+      <c r="C36" t="s">
+        <v>2</v>
+      </c>
+      <c r="D36" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>5</v>
+      </c>
+      <c r="C37" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>5</v>
+      </c>
+      <c r="C38" t="s">
+        <v>7</v>
+      </c>
+      <c r="D38" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>5</v>
+      </c>
+      <c r="C39" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>5</v>
+      </c>
+      <c r="C40" t="s">
+        <v>11</v>
+      </c>
+      <c r="D40" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>5</v>
+      </c>
+      <c r="C41" t="s">
+        <v>12</v>
+      </c>
+      <c r="D41" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>5</v>
+      </c>
+      <c r="C42" t="s">
+        <v>13</v>
+      </c>
+      <c r="D42" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>5</v>
+      </c>
+      <c r="C43" t="s">
+        <v>14</v>
+      </c>
+      <c r="D43" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>6</v>
+      </c>
+      <c r="C44" t="s">
+        <v>2</v>
+      </c>
+      <c r="D44" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>6</v>
+      </c>
+      <c r="C45" t="s">
+        <v>6</v>
+      </c>
+      <c r="D45" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>6</v>
+      </c>
+      <c r="C46" t="s">
+        <v>7</v>
+      </c>
+      <c r="D46" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>6</v>
+      </c>
+      <c r="C47" t="s">
+        <v>8</v>
+      </c>
+      <c r="D47" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>6</v>
+      </c>
+      <c r="C48" t="s">
+        <v>11</v>
+      </c>
+      <c r="D48" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>6</v>
+      </c>
+      <c r="C49" t="s">
+        <v>12</v>
+      </c>
+      <c r="D49" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>6</v>
+      </c>
+      <c r="C50" t="s">
+        <v>13</v>
+      </c>
+      <c r="D50" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>6</v>
+      </c>
+      <c r="C51" t="s">
+        <v>14</v>
+      </c>
+      <c r="D51" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>7</v>
+      </c>
+      <c r="C52" t="s">
+        <v>2</v>
+      </c>
+      <c r="D52" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>7</v>
+      </c>
+      <c r="C53" t="s">
+        <v>6</v>
+      </c>
+      <c r="D53" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>7</v>
+      </c>
+      <c r="C54" t="s">
+        <v>7</v>
+      </c>
+      <c r="D54" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>7</v>
+      </c>
+      <c r="C55" t="s">
+        <v>8</v>
+      </c>
+      <c r="D55" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>7</v>
+      </c>
+      <c r="C56" t="s">
+        <v>11</v>
+      </c>
+      <c r="D56" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>7</v>
+      </c>
+      <c r="C57" t="s">
+        <v>12</v>
+      </c>
+      <c r="D57" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>7</v>
+      </c>
+      <c r="C58" t="s">
+        <v>13</v>
+      </c>
+      <c r="D58" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>7</v>
+      </c>
+      <c r="C59" t="s">
+        <v>14</v>
+      </c>
+      <c r="D59" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>8</v>
+      </c>
+      <c r="C60" t="s">
+        <v>2</v>
+      </c>
+      <c r="D60" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>8</v>
+      </c>
+      <c r="C61" t="s">
+        <v>6</v>
+      </c>
+      <c r="D61" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>8</v>
+      </c>
+      <c r="C62" t="s">
+        <v>7</v>
+      </c>
+      <c r="D62" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>8</v>
+      </c>
+      <c r="C63" t="s">
+        <v>8</v>
+      </c>
+      <c r="D63" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>8</v>
+      </c>
+      <c r="C64" t="s">
+        <v>11</v>
+      </c>
+      <c r="D64" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>34</v>
+      </c>
+      <c r="B65">
+        <v>8</v>
+      </c>
+      <c r="C65" t="s">
+        <v>12</v>
+      </c>
+      <c r="D65" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>35</v>
+      </c>
+      <c r="B66">
+        <v>8</v>
+      </c>
+      <c r="C66" t="s">
+        <v>13</v>
+      </c>
+      <c r="D66" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>36</v>
+      </c>
+      <c r="B67">
+        <v>8</v>
+      </c>
+      <c r="C67" t="s">
+        <v>14</v>
+      </c>
+      <c r="D67" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:D7">
     <sortCondition ref="B1:B7"/>

--- a/psychopy_experiment/conditions/conditions.xlsx
+++ b/psychopy_experiment/conditions/conditions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erang\Desktop\Reading_task\psychopy_experiment\conditions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{025483BA-FA18-4C16-BD3D-2BBF226821F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC4239CF-94FE-4BFE-980B-DFB0E342909D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="16">
   <si>
     <t>PID</t>
   </si>
@@ -396,10 +396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D67"/>
+  <dimension ref="A1:D75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="C75" sqref="C75"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="D75" sqref="D75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1346,6 +1346,118 @@
         <v>3</v>
       </c>
     </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>37</v>
+      </c>
+      <c r="B68">
+        <v>9</v>
+      </c>
+      <c r="C68" t="s">
+        <v>2</v>
+      </c>
+      <c r="D68" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>38</v>
+      </c>
+      <c r="B69">
+        <v>9</v>
+      </c>
+      <c r="C69" t="s">
+        <v>6</v>
+      </c>
+      <c r="D69" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>39</v>
+      </c>
+      <c r="B70">
+        <v>9</v>
+      </c>
+      <c r="C70" t="s">
+        <v>7</v>
+      </c>
+      <c r="D70" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>40</v>
+      </c>
+      <c r="B71">
+        <v>9</v>
+      </c>
+      <c r="C71" t="s">
+        <v>8</v>
+      </c>
+      <c r="D71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>41</v>
+      </c>
+      <c r="B72">
+        <v>9</v>
+      </c>
+      <c r="C72" t="s">
+        <v>11</v>
+      </c>
+      <c r="D72" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>42</v>
+      </c>
+      <c r="B73">
+        <v>9</v>
+      </c>
+      <c r="C73" t="s">
+        <v>12</v>
+      </c>
+      <c r="D73" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>43</v>
+      </c>
+      <c r="B74">
+        <v>9</v>
+      </c>
+      <c r="C74" t="s">
+        <v>13</v>
+      </c>
+      <c r="D74" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>44</v>
+      </c>
+      <c r="B75">
+        <v>9</v>
+      </c>
+      <c r="C75" t="s">
+        <v>14</v>
+      </c>
+      <c r="D75" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:D7">
     <sortCondition ref="B1:B7"/>

--- a/psychopy_experiment/conditions/conditions.xlsx
+++ b/psychopy_experiment/conditions/conditions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erang\Desktop\Reading_task\psychopy_experiment\conditions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC4239CF-94FE-4BFE-980B-DFB0E342909D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01510E9F-9B2F-44D7-A357-4009964CBCEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="16">
   <si>
     <t>PID</t>
   </si>
@@ -396,10 +396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D75"/>
+  <dimension ref="A1:D83"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="D75" sqref="D75"/>
+      <selection activeCell="G77" sqref="G77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1458,6 +1458,118 @@
         <v>3</v>
       </c>
     </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>45</v>
+      </c>
+      <c r="B76">
+        <v>10</v>
+      </c>
+      <c r="C76" t="s">
+        <v>2</v>
+      </c>
+      <c r="D76" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>46</v>
+      </c>
+      <c r="B77">
+        <v>10</v>
+      </c>
+      <c r="C77" t="s">
+        <v>6</v>
+      </c>
+      <c r="D77" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>47</v>
+      </c>
+      <c r="B78">
+        <v>10</v>
+      </c>
+      <c r="C78" t="s">
+        <v>7</v>
+      </c>
+      <c r="D78" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>48</v>
+      </c>
+      <c r="B79">
+        <v>10</v>
+      </c>
+      <c r="C79" t="s">
+        <v>8</v>
+      </c>
+      <c r="D79" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>49</v>
+      </c>
+      <c r="B80">
+        <v>10</v>
+      </c>
+      <c r="C80" t="s">
+        <v>11</v>
+      </c>
+      <c r="D80" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>50</v>
+      </c>
+      <c r="B81">
+        <v>10</v>
+      </c>
+      <c r="C81" t="s">
+        <v>12</v>
+      </c>
+      <c r="D81" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>51</v>
+      </c>
+      <c r="B82">
+        <v>10</v>
+      </c>
+      <c r="C82" t="s">
+        <v>13</v>
+      </c>
+      <c r="D82" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>52</v>
+      </c>
+      <c r="B83">
+        <v>10</v>
+      </c>
+      <c r="C83" t="s">
+        <v>14</v>
+      </c>
+      <c r="D83" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:D7">
     <sortCondition ref="B1:B7"/>

--- a/psychopy_experiment/conditions/conditions.xlsx
+++ b/psychopy_experiment/conditions/conditions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erang\Desktop\Reading_task\psychopy_experiment\conditions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01510E9F-9B2F-44D7-A357-4009964CBCEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{065F1587-1DDB-4F9A-A322-4F21B6B54739}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="16">
   <si>
     <t>PID</t>
   </si>
@@ -396,10 +396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D83"/>
+  <dimension ref="A1:D91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="G77" sqref="G77"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="F89" sqref="F89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1570,6 +1570,118 @@
         <v>4</v>
       </c>
     </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>53</v>
+      </c>
+      <c r="B84">
+        <v>11</v>
+      </c>
+      <c r="C84" t="s">
+        <v>2</v>
+      </c>
+      <c r="D84" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>54</v>
+      </c>
+      <c r="B85">
+        <v>11</v>
+      </c>
+      <c r="C85" t="s">
+        <v>6</v>
+      </c>
+      <c r="D85" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>55</v>
+      </c>
+      <c r="B86">
+        <v>11</v>
+      </c>
+      <c r="C86" t="s">
+        <v>7</v>
+      </c>
+      <c r="D86" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>56</v>
+      </c>
+      <c r="B87">
+        <v>11</v>
+      </c>
+      <c r="C87" t="s">
+        <v>8</v>
+      </c>
+      <c r="D87" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>57</v>
+      </c>
+      <c r="B88">
+        <v>11</v>
+      </c>
+      <c r="C88" t="s">
+        <v>11</v>
+      </c>
+      <c r="D88" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>58</v>
+      </c>
+      <c r="B89">
+        <v>11</v>
+      </c>
+      <c r="C89" t="s">
+        <v>12</v>
+      </c>
+      <c r="D89" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>59</v>
+      </c>
+      <c r="B90">
+        <v>11</v>
+      </c>
+      <c r="C90" t="s">
+        <v>13</v>
+      </c>
+      <c r="D90" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>60</v>
+      </c>
+      <c r="B91">
+        <v>11</v>
+      </c>
+      <c r="C91" t="s">
+        <v>14</v>
+      </c>
+      <c r="D91" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:D7">
     <sortCondition ref="B1:B7"/>

--- a/psychopy_experiment/conditions/conditions.xlsx
+++ b/psychopy_experiment/conditions/conditions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erang\Desktop\Reading_task\psychopy_experiment\conditions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{065F1587-1DDB-4F9A-A322-4F21B6B54739}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34835B08-B20A-4CB7-9A7B-41469712C0B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="16">
   <si>
     <t>PID</t>
   </si>
@@ -396,10 +396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D91"/>
+  <dimension ref="A1:D99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="F89" sqref="F89"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="D98" sqref="D98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1682,6 +1682,118 @@
         <v>4</v>
       </c>
     </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>61</v>
+      </c>
+      <c r="B92">
+        <v>12</v>
+      </c>
+      <c r="C92" t="s">
+        <v>2</v>
+      </c>
+      <c r="D92" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>62</v>
+      </c>
+      <c r="B93">
+        <v>12</v>
+      </c>
+      <c r="C93" t="s">
+        <v>6</v>
+      </c>
+      <c r="D93" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>63</v>
+      </c>
+      <c r="B94">
+        <v>12</v>
+      </c>
+      <c r="C94" t="s">
+        <v>7</v>
+      </c>
+      <c r="D94" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>64</v>
+      </c>
+      <c r="B95">
+        <v>12</v>
+      </c>
+      <c r="C95" t="s">
+        <v>8</v>
+      </c>
+      <c r="D95" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>65</v>
+      </c>
+      <c r="B96">
+        <v>12</v>
+      </c>
+      <c r="C96" t="s">
+        <v>11</v>
+      </c>
+      <c r="D96" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>66</v>
+      </c>
+      <c r="B97">
+        <v>12</v>
+      </c>
+      <c r="C97" t="s">
+        <v>12</v>
+      </c>
+      <c r="D97" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>67</v>
+      </c>
+      <c r="B98">
+        <v>12</v>
+      </c>
+      <c r="C98" t="s">
+        <v>13</v>
+      </c>
+      <c r="D98" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>68</v>
+      </c>
+      <c r="B99">
+        <v>12</v>
+      </c>
+      <c r="C99" t="s">
+        <v>14</v>
+      </c>
+      <c r="D99" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:D7">
     <sortCondition ref="B1:B7"/>

--- a/psychopy_experiment/conditions/conditions.xlsx
+++ b/psychopy_experiment/conditions/conditions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erang\Desktop\Reading_task\psychopy_experiment\conditions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34835B08-B20A-4CB7-9A7B-41469712C0B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{290DA990-6D67-4D52-BDC2-63821121262C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="16">
   <si>
     <t>PID</t>
   </si>
@@ -396,10 +396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D99"/>
+  <dimension ref="A1:D131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="D98" sqref="D98"/>
+    <sheetView tabSelected="1" topLeftCell="A108" workbookViewId="0">
+      <selection activeCell="H122" sqref="H122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1794,6 +1794,454 @@
         <v>3</v>
       </c>
     </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>69</v>
+      </c>
+      <c r="B100">
+        <v>13</v>
+      </c>
+      <c r="C100" t="s">
+        <v>2</v>
+      </c>
+      <c r="D100" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>70</v>
+      </c>
+      <c r="B101">
+        <v>13</v>
+      </c>
+      <c r="C101" t="s">
+        <v>6</v>
+      </c>
+      <c r="D101" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>71</v>
+      </c>
+      <c r="B102">
+        <v>13</v>
+      </c>
+      <c r="C102" t="s">
+        <v>7</v>
+      </c>
+      <c r="D102" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>72</v>
+      </c>
+      <c r="B103">
+        <v>13</v>
+      </c>
+      <c r="C103" t="s">
+        <v>8</v>
+      </c>
+      <c r="D103" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>73</v>
+      </c>
+      <c r="B104">
+        <v>13</v>
+      </c>
+      <c r="C104" t="s">
+        <v>11</v>
+      </c>
+      <c r="D104" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>74</v>
+      </c>
+      <c r="B105">
+        <v>13</v>
+      </c>
+      <c r="C105" t="s">
+        <v>12</v>
+      </c>
+      <c r="D105" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>75</v>
+      </c>
+      <c r="B106">
+        <v>13</v>
+      </c>
+      <c r="C106" t="s">
+        <v>13</v>
+      </c>
+      <c r="D106" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>76</v>
+      </c>
+      <c r="B107">
+        <v>13</v>
+      </c>
+      <c r="C107" t="s">
+        <v>14</v>
+      </c>
+      <c r="D107" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>77</v>
+      </c>
+      <c r="B108">
+        <v>14</v>
+      </c>
+      <c r="C108" t="s">
+        <v>2</v>
+      </c>
+      <c r="D108" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>78</v>
+      </c>
+      <c r="B109">
+        <v>14</v>
+      </c>
+      <c r="C109" t="s">
+        <v>6</v>
+      </c>
+      <c r="D109" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>79</v>
+      </c>
+      <c r="B110">
+        <v>14</v>
+      </c>
+      <c r="C110" t="s">
+        <v>7</v>
+      </c>
+      <c r="D110" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>80</v>
+      </c>
+      <c r="B111">
+        <v>14</v>
+      </c>
+      <c r="C111" t="s">
+        <v>8</v>
+      </c>
+      <c r="D111" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>81</v>
+      </c>
+      <c r="B112">
+        <v>14</v>
+      </c>
+      <c r="C112" t="s">
+        <v>11</v>
+      </c>
+      <c r="D112" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>82</v>
+      </c>
+      <c r="B113">
+        <v>14</v>
+      </c>
+      <c r="C113" t="s">
+        <v>12</v>
+      </c>
+      <c r="D113" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>83</v>
+      </c>
+      <c r="B114">
+        <v>14</v>
+      </c>
+      <c r="C114" t="s">
+        <v>13</v>
+      </c>
+      <c r="D114" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>84</v>
+      </c>
+      <c r="B115">
+        <v>14</v>
+      </c>
+      <c r="C115" t="s">
+        <v>14</v>
+      </c>
+      <c r="D115" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>85</v>
+      </c>
+      <c r="B116">
+        <v>15</v>
+      </c>
+      <c r="C116" t="s">
+        <v>2</v>
+      </c>
+      <c r="D116" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>86</v>
+      </c>
+      <c r="B117">
+        <v>15</v>
+      </c>
+      <c r="C117" t="s">
+        <v>6</v>
+      </c>
+      <c r="D117" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>87</v>
+      </c>
+      <c r="B118">
+        <v>15</v>
+      </c>
+      <c r="C118" t="s">
+        <v>7</v>
+      </c>
+      <c r="D118" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>88</v>
+      </c>
+      <c r="B119">
+        <v>15</v>
+      </c>
+      <c r="C119" t="s">
+        <v>8</v>
+      </c>
+      <c r="D119" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>89</v>
+      </c>
+      <c r="B120">
+        <v>15</v>
+      </c>
+      <c r="C120" t="s">
+        <v>11</v>
+      </c>
+      <c r="D120" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>90</v>
+      </c>
+      <c r="B121">
+        <v>15</v>
+      </c>
+      <c r="C121" t="s">
+        <v>12</v>
+      </c>
+      <c r="D121" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>91</v>
+      </c>
+      <c r="B122">
+        <v>15</v>
+      </c>
+      <c r="C122" t="s">
+        <v>13</v>
+      </c>
+      <c r="D122" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>92</v>
+      </c>
+      <c r="B123">
+        <v>15</v>
+      </c>
+      <c r="C123" t="s">
+        <v>14</v>
+      </c>
+      <c r="D123" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>93</v>
+      </c>
+      <c r="B124">
+        <v>16</v>
+      </c>
+      <c r="C124" t="s">
+        <v>2</v>
+      </c>
+      <c r="D124" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <v>94</v>
+      </c>
+      <c r="B125">
+        <v>16</v>
+      </c>
+      <c r="C125" t="s">
+        <v>6</v>
+      </c>
+      <c r="D125" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <v>95</v>
+      </c>
+      <c r="B126">
+        <v>16</v>
+      </c>
+      <c r="C126" t="s">
+        <v>7</v>
+      </c>
+      <c r="D126" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>96</v>
+      </c>
+      <c r="B127">
+        <v>16</v>
+      </c>
+      <c r="C127" t="s">
+        <v>8</v>
+      </c>
+      <c r="D127" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>97</v>
+      </c>
+      <c r="B128">
+        <v>16</v>
+      </c>
+      <c r="C128" t="s">
+        <v>11</v>
+      </c>
+      <c r="D128" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>98</v>
+      </c>
+      <c r="B129">
+        <v>16</v>
+      </c>
+      <c r="C129" t="s">
+        <v>12</v>
+      </c>
+      <c r="D129" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <v>99</v>
+      </c>
+      <c r="B130">
+        <v>16</v>
+      </c>
+      <c r="C130" t="s">
+        <v>13</v>
+      </c>
+      <c r="D130" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <v>100</v>
+      </c>
+      <c r="B131">
+        <v>16</v>
+      </c>
+      <c r="C131" t="s">
+        <v>14</v>
+      </c>
+      <c r="D131" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:D7">
     <sortCondition ref="B1:B7"/>

--- a/psychopy_experiment/conditions/conditions.xlsx
+++ b/psychopy_experiment/conditions/conditions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erang\Desktop\Reading_task\psychopy_experiment\conditions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{290DA990-6D67-4D52-BDC2-63821121262C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB8CB304-0E66-4971-A947-34B5ACEEFE78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="16">
   <si>
     <t>PID</t>
   </si>
@@ -396,10 +396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D131"/>
+  <dimension ref="A1:D163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A108" workbookViewId="0">
-      <selection activeCell="H122" sqref="H122"/>
+    <sheetView tabSelected="1" topLeftCell="A140" workbookViewId="0">
+      <selection activeCell="E159" sqref="E159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2242,6 +2242,454 @@
         <v>3</v>
       </c>
     </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <v>101</v>
+      </c>
+      <c r="B132">
+        <v>17</v>
+      </c>
+      <c r="C132" t="s">
+        <v>2</v>
+      </c>
+      <c r="D132" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <v>102</v>
+      </c>
+      <c r="B133">
+        <v>17</v>
+      </c>
+      <c r="C133" t="s">
+        <v>6</v>
+      </c>
+      <c r="D133" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <v>103</v>
+      </c>
+      <c r="B134">
+        <v>17</v>
+      </c>
+      <c r="C134" t="s">
+        <v>7</v>
+      </c>
+      <c r="D134" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <v>104</v>
+      </c>
+      <c r="B135">
+        <v>17</v>
+      </c>
+      <c r="C135" t="s">
+        <v>8</v>
+      </c>
+      <c r="D135" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <v>105</v>
+      </c>
+      <c r="B136">
+        <v>17</v>
+      </c>
+      <c r="C136" t="s">
+        <v>11</v>
+      </c>
+      <c r="D136" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <v>106</v>
+      </c>
+      <c r="B137">
+        <v>17</v>
+      </c>
+      <c r="C137" t="s">
+        <v>12</v>
+      </c>
+      <c r="D137" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <v>107</v>
+      </c>
+      <c r="B138">
+        <v>17</v>
+      </c>
+      <c r="C138" t="s">
+        <v>13</v>
+      </c>
+      <c r="D138" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A139">
+        <v>108</v>
+      </c>
+      <c r="B139">
+        <v>17</v>
+      </c>
+      <c r="C139" t="s">
+        <v>14</v>
+      </c>
+      <c r="D139" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A140">
+        <v>109</v>
+      </c>
+      <c r="B140">
+        <v>18</v>
+      </c>
+      <c r="C140" t="s">
+        <v>2</v>
+      </c>
+      <c r="D140" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A141">
+        <v>110</v>
+      </c>
+      <c r="B141">
+        <v>18</v>
+      </c>
+      <c r="C141" t="s">
+        <v>6</v>
+      </c>
+      <c r="D141" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A142">
+        <v>111</v>
+      </c>
+      <c r="B142">
+        <v>18</v>
+      </c>
+      <c r="C142" t="s">
+        <v>7</v>
+      </c>
+      <c r="D142" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A143">
+        <v>112</v>
+      </c>
+      <c r="B143">
+        <v>18</v>
+      </c>
+      <c r="C143" t="s">
+        <v>8</v>
+      </c>
+      <c r="D143" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A144">
+        <v>113</v>
+      </c>
+      <c r="B144">
+        <v>18</v>
+      </c>
+      <c r="C144" t="s">
+        <v>11</v>
+      </c>
+      <c r="D144" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A145">
+        <v>114</v>
+      </c>
+      <c r="B145">
+        <v>18</v>
+      </c>
+      <c r="C145" t="s">
+        <v>12</v>
+      </c>
+      <c r="D145" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A146">
+        <v>115</v>
+      </c>
+      <c r="B146">
+        <v>18</v>
+      </c>
+      <c r="C146" t="s">
+        <v>13</v>
+      </c>
+      <c r="D146" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A147">
+        <v>116</v>
+      </c>
+      <c r="B147">
+        <v>18</v>
+      </c>
+      <c r="C147" t="s">
+        <v>14</v>
+      </c>
+      <c r="D147" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A148">
+        <v>117</v>
+      </c>
+      <c r="B148">
+        <v>19</v>
+      </c>
+      <c r="C148" t="s">
+        <v>2</v>
+      </c>
+      <c r="D148" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A149">
+        <v>118</v>
+      </c>
+      <c r="B149">
+        <v>19</v>
+      </c>
+      <c r="C149" t="s">
+        <v>6</v>
+      </c>
+      <c r="D149" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A150">
+        <v>119</v>
+      </c>
+      <c r="B150">
+        <v>19</v>
+      </c>
+      <c r="C150" t="s">
+        <v>7</v>
+      </c>
+      <c r="D150" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A151">
+        <v>120</v>
+      </c>
+      <c r="B151">
+        <v>19</v>
+      </c>
+      <c r="C151" t="s">
+        <v>8</v>
+      </c>
+      <c r="D151" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A152">
+        <v>121</v>
+      </c>
+      <c r="B152">
+        <v>19</v>
+      </c>
+      <c r="C152" t="s">
+        <v>11</v>
+      </c>
+      <c r="D152" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A153">
+        <v>122</v>
+      </c>
+      <c r="B153">
+        <v>19</v>
+      </c>
+      <c r="C153" t="s">
+        <v>12</v>
+      </c>
+      <c r="D153" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A154">
+        <v>123</v>
+      </c>
+      <c r="B154">
+        <v>19</v>
+      </c>
+      <c r="C154" t="s">
+        <v>13</v>
+      </c>
+      <c r="D154" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A155">
+        <v>124</v>
+      </c>
+      <c r="B155">
+        <v>19</v>
+      </c>
+      <c r="C155" t="s">
+        <v>14</v>
+      </c>
+      <c r="D155" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A156">
+        <v>125</v>
+      </c>
+      <c r="B156">
+        <v>20</v>
+      </c>
+      <c r="C156" t="s">
+        <v>2</v>
+      </c>
+      <c r="D156" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A157">
+        <v>126</v>
+      </c>
+      <c r="B157">
+        <v>20</v>
+      </c>
+      <c r="C157" t="s">
+        <v>6</v>
+      </c>
+      <c r="D157" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A158">
+        <v>127</v>
+      </c>
+      <c r="B158">
+        <v>20</v>
+      </c>
+      <c r="C158" t="s">
+        <v>7</v>
+      </c>
+      <c r="D158" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A159">
+        <v>128</v>
+      </c>
+      <c r="B159">
+        <v>20</v>
+      </c>
+      <c r="C159" t="s">
+        <v>8</v>
+      </c>
+      <c r="D159" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A160">
+        <v>129</v>
+      </c>
+      <c r="B160">
+        <v>20</v>
+      </c>
+      <c r="C160" t="s">
+        <v>11</v>
+      </c>
+      <c r="D160" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A161">
+        <v>130</v>
+      </c>
+      <c r="B161">
+        <v>20</v>
+      </c>
+      <c r="C161" t="s">
+        <v>12</v>
+      </c>
+      <c r="D161" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A162">
+        <v>131</v>
+      </c>
+      <c r="B162">
+        <v>20</v>
+      </c>
+      <c r="C162" t="s">
+        <v>13</v>
+      </c>
+      <c r="D162" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A163">
+        <v>132</v>
+      </c>
+      <c r="B163">
+        <v>20</v>
+      </c>
+      <c r="C163" t="s">
+        <v>14</v>
+      </c>
+      <c r="D163" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:D7">
     <sortCondition ref="B1:B7"/>

--- a/psychopy_experiment/conditions/conditions.xlsx
+++ b/psychopy_experiment/conditions/conditions.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erang\Desktop\Reading_task\psychopy_experiment\conditions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB8CB304-0E66-4971-A947-34B5ACEEFE78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FD3BA45-D1DF-4E04-B8AC-F162D0FD0D3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="16">
   <si>
     <t>PID</t>
   </si>
@@ -396,10 +396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D163"/>
+  <dimension ref="A1:D171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A140" workbookViewId="0">
-      <selection activeCell="E159" sqref="E159"/>
+    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
+      <selection activeCell="G168" sqref="G168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2690,6 +2690,118 @@
         <v>3</v>
       </c>
     </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A164">
+        <v>133</v>
+      </c>
+      <c r="B164">
+        <v>21</v>
+      </c>
+      <c r="C164" t="s">
+        <v>2</v>
+      </c>
+      <c r="D164" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A165">
+        <v>134</v>
+      </c>
+      <c r="B165">
+        <v>21</v>
+      </c>
+      <c r="C165" t="s">
+        <v>6</v>
+      </c>
+      <c r="D165" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A166">
+        <v>135</v>
+      </c>
+      <c r="B166">
+        <v>21</v>
+      </c>
+      <c r="C166" t="s">
+        <v>7</v>
+      </c>
+      <c r="D166" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A167">
+        <v>136</v>
+      </c>
+      <c r="B167">
+        <v>21</v>
+      </c>
+      <c r="C167" t="s">
+        <v>8</v>
+      </c>
+      <c r="D167" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A168">
+        <v>137</v>
+      </c>
+      <c r="B168">
+        <v>21</v>
+      </c>
+      <c r="C168" t="s">
+        <v>11</v>
+      </c>
+      <c r="D168" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A169">
+        <v>138</v>
+      </c>
+      <c r="B169">
+        <v>21</v>
+      </c>
+      <c r="C169" t="s">
+        <v>12</v>
+      </c>
+      <c r="D169" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A170">
+        <v>139</v>
+      </c>
+      <c r="B170">
+        <v>21</v>
+      </c>
+      <c r="C170" t="s">
+        <v>13</v>
+      </c>
+      <c r="D170" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A171">
+        <v>140</v>
+      </c>
+      <c r="B171">
+        <v>21</v>
+      </c>
+      <c r="C171" t="s">
+        <v>14</v>
+      </c>
+      <c r="D171" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:D7">
     <sortCondition ref="B1:B7"/>

--- a/psychopy_experiment/conditions/conditions.xlsx
+++ b/psychopy_experiment/conditions/conditions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erang\Desktop\Reading_task\psychopy_experiment\conditions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FD3BA45-D1DF-4E04-B8AC-F162D0FD0D3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6B76C2B-B77D-49A4-8A11-EC7CA7A594F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="16">
   <si>
     <t>PID</t>
   </si>
@@ -396,10 +396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D171"/>
+  <dimension ref="A1:D195"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
-      <selection activeCell="G168" sqref="G168"/>
+    <sheetView tabSelected="1" topLeftCell="A172" workbookViewId="0">
+      <selection activeCell="J194" sqref="J194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2802,6 +2802,342 @@
         <v>3</v>
       </c>
     </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A172">
+        <v>141</v>
+      </c>
+      <c r="B172">
+        <v>22</v>
+      </c>
+      <c r="C172" t="s">
+        <v>2</v>
+      </c>
+      <c r="D172" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A173">
+        <v>142</v>
+      </c>
+      <c r="B173">
+        <v>22</v>
+      </c>
+      <c r="C173" t="s">
+        <v>6</v>
+      </c>
+      <c r="D173" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A174">
+        <v>143</v>
+      </c>
+      <c r="B174">
+        <v>22</v>
+      </c>
+      <c r="C174" t="s">
+        <v>7</v>
+      </c>
+      <c r="D174" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A175">
+        <v>144</v>
+      </c>
+      <c r="B175">
+        <v>22</v>
+      </c>
+      <c r="C175" t="s">
+        <v>8</v>
+      </c>
+      <c r="D175" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A176">
+        <v>145</v>
+      </c>
+      <c r="B176">
+        <v>22</v>
+      </c>
+      <c r="C176" t="s">
+        <v>11</v>
+      </c>
+      <c r="D176" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A177">
+        <v>146</v>
+      </c>
+      <c r="B177">
+        <v>22</v>
+      </c>
+      <c r="C177" t="s">
+        <v>12</v>
+      </c>
+      <c r="D177" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A178">
+        <v>147</v>
+      </c>
+      <c r="B178">
+        <v>22</v>
+      </c>
+      <c r="C178" t="s">
+        <v>13</v>
+      </c>
+      <c r="D178" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A179">
+        <v>148</v>
+      </c>
+      <c r="B179">
+        <v>22</v>
+      </c>
+      <c r="C179" t="s">
+        <v>14</v>
+      </c>
+      <c r="D179" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A180">
+        <v>149</v>
+      </c>
+      <c r="B180">
+        <v>23</v>
+      </c>
+      <c r="C180" t="s">
+        <v>2</v>
+      </c>
+      <c r="D180" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A181">
+        <v>150</v>
+      </c>
+      <c r="B181">
+        <v>23</v>
+      </c>
+      <c r="C181" t="s">
+        <v>6</v>
+      </c>
+      <c r="D181" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A182">
+        <v>151</v>
+      </c>
+      <c r="B182">
+        <v>23</v>
+      </c>
+      <c r="C182" t="s">
+        <v>7</v>
+      </c>
+      <c r="D182" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A183">
+        <v>152</v>
+      </c>
+      <c r="B183">
+        <v>23</v>
+      </c>
+      <c r="C183" t="s">
+        <v>8</v>
+      </c>
+      <c r="D183" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A184">
+        <v>153</v>
+      </c>
+      <c r="B184">
+        <v>23</v>
+      </c>
+      <c r="C184" t="s">
+        <v>11</v>
+      </c>
+      <c r="D184" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A185">
+        <v>154</v>
+      </c>
+      <c r="B185">
+        <v>23</v>
+      </c>
+      <c r="C185" t="s">
+        <v>12</v>
+      </c>
+      <c r="D185" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A186">
+        <v>155</v>
+      </c>
+      <c r="B186">
+        <v>23</v>
+      </c>
+      <c r="C186" t="s">
+        <v>13</v>
+      </c>
+      <c r="D186" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A187">
+        <v>156</v>
+      </c>
+      <c r="B187">
+        <v>23</v>
+      </c>
+      <c r="C187" t="s">
+        <v>14</v>
+      </c>
+      <c r="D187" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A188">
+        <v>157</v>
+      </c>
+      <c r="B188">
+        <v>24</v>
+      </c>
+      <c r="C188" t="s">
+        <v>2</v>
+      </c>
+      <c r="D188" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A189">
+        <v>158</v>
+      </c>
+      <c r="B189">
+        <v>24</v>
+      </c>
+      <c r="C189" t="s">
+        <v>6</v>
+      </c>
+      <c r="D189" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A190">
+        <v>159</v>
+      </c>
+      <c r="B190">
+        <v>24</v>
+      </c>
+      <c r="C190" t="s">
+        <v>7</v>
+      </c>
+      <c r="D190" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A191">
+        <v>160</v>
+      </c>
+      <c r="B191">
+        <v>24</v>
+      </c>
+      <c r="C191" t="s">
+        <v>8</v>
+      </c>
+      <c r="D191" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A192">
+        <v>161</v>
+      </c>
+      <c r="B192">
+        <v>24</v>
+      </c>
+      <c r="C192" t="s">
+        <v>11</v>
+      </c>
+      <c r="D192" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A193">
+        <v>162</v>
+      </c>
+      <c r="B193">
+        <v>24</v>
+      </c>
+      <c r="C193" t="s">
+        <v>12</v>
+      </c>
+      <c r="D193" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A194">
+        <v>163</v>
+      </c>
+      <c r="B194">
+        <v>24</v>
+      </c>
+      <c r="C194" t="s">
+        <v>13</v>
+      </c>
+      <c r="D194" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A195">
+        <v>164</v>
+      </c>
+      <c r="B195">
+        <v>24</v>
+      </c>
+      <c r="C195" t="s">
+        <v>14</v>
+      </c>
+      <c r="D195" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:D7">
     <sortCondition ref="B1:B7"/>

--- a/psychopy_experiment/conditions/conditions.xlsx
+++ b/psychopy_experiment/conditions/conditions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erang\Desktop\Reading_task\psychopy_experiment\conditions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6B76C2B-B77D-49A4-8A11-EC7CA7A594F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79467758-28FD-4F66-A175-EF1688197454}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="16">
   <si>
     <t>PID</t>
   </si>
@@ -396,10 +396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D195"/>
+  <dimension ref="A1:D227"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A172" workbookViewId="0">
-      <selection activeCell="J194" sqref="J194"/>
+    <sheetView tabSelected="1" topLeftCell="A204" workbookViewId="0">
+      <selection activeCell="G223" sqref="G223"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3138,6 +3138,454 @@
         <v>3</v>
       </c>
     </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A196">
+        <v>165</v>
+      </c>
+      <c r="B196">
+        <v>25</v>
+      </c>
+      <c r="C196" t="s">
+        <v>2</v>
+      </c>
+      <c r="D196" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A197">
+        <v>166</v>
+      </c>
+      <c r="B197">
+        <v>25</v>
+      </c>
+      <c r="C197" t="s">
+        <v>6</v>
+      </c>
+      <c r="D197" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A198">
+        <v>167</v>
+      </c>
+      <c r="B198">
+        <v>25</v>
+      </c>
+      <c r="C198" t="s">
+        <v>7</v>
+      </c>
+      <c r="D198" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A199">
+        <v>168</v>
+      </c>
+      <c r="B199">
+        <v>25</v>
+      </c>
+      <c r="C199" t="s">
+        <v>8</v>
+      </c>
+      <c r="D199" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A200">
+        <v>169</v>
+      </c>
+      <c r="B200">
+        <v>25</v>
+      </c>
+      <c r="C200" t="s">
+        <v>11</v>
+      </c>
+      <c r="D200" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A201">
+        <v>170</v>
+      </c>
+      <c r="B201">
+        <v>25</v>
+      </c>
+      <c r="C201" t="s">
+        <v>12</v>
+      </c>
+      <c r="D201" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A202">
+        <v>171</v>
+      </c>
+      <c r="B202">
+        <v>25</v>
+      </c>
+      <c r="C202" t="s">
+        <v>13</v>
+      </c>
+      <c r="D202" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A203">
+        <v>172</v>
+      </c>
+      <c r="B203">
+        <v>25</v>
+      </c>
+      <c r="C203" t="s">
+        <v>14</v>
+      </c>
+      <c r="D203" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A204">
+        <v>173</v>
+      </c>
+      <c r="B204">
+        <v>26</v>
+      </c>
+      <c r="C204" t="s">
+        <v>2</v>
+      </c>
+      <c r="D204" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A205">
+        <v>174</v>
+      </c>
+      <c r="B205">
+        <v>26</v>
+      </c>
+      <c r="C205" t="s">
+        <v>6</v>
+      </c>
+      <c r="D205" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A206">
+        <v>175</v>
+      </c>
+      <c r="B206">
+        <v>26</v>
+      </c>
+      <c r="C206" t="s">
+        <v>7</v>
+      </c>
+      <c r="D206" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A207">
+        <v>176</v>
+      </c>
+      <c r="B207">
+        <v>26</v>
+      </c>
+      <c r="C207" t="s">
+        <v>8</v>
+      </c>
+      <c r="D207" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A208">
+        <v>177</v>
+      </c>
+      <c r="B208">
+        <v>26</v>
+      </c>
+      <c r="C208" t="s">
+        <v>11</v>
+      </c>
+      <c r="D208" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A209">
+        <v>178</v>
+      </c>
+      <c r="B209">
+        <v>26</v>
+      </c>
+      <c r="C209" t="s">
+        <v>12</v>
+      </c>
+      <c r="D209" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A210">
+        <v>179</v>
+      </c>
+      <c r="B210">
+        <v>26</v>
+      </c>
+      <c r="C210" t="s">
+        <v>13</v>
+      </c>
+      <c r="D210" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A211">
+        <v>180</v>
+      </c>
+      <c r="B211">
+        <v>26</v>
+      </c>
+      <c r="C211" t="s">
+        <v>14</v>
+      </c>
+      <c r="D211" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A212">
+        <v>181</v>
+      </c>
+      <c r="B212">
+        <v>27</v>
+      </c>
+      <c r="C212" t="s">
+        <v>2</v>
+      </c>
+      <c r="D212" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A213">
+        <v>182</v>
+      </c>
+      <c r="B213">
+        <v>27</v>
+      </c>
+      <c r="C213" t="s">
+        <v>6</v>
+      </c>
+      <c r="D213" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A214">
+        <v>183</v>
+      </c>
+      <c r="B214">
+        <v>27</v>
+      </c>
+      <c r="C214" t="s">
+        <v>7</v>
+      </c>
+      <c r="D214" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A215">
+        <v>184</v>
+      </c>
+      <c r="B215">
+        <v>27</v>
+      </c>
+      <c r="C215" t="s">
+        <v>8</v>
+      </c>
+      <c r="D215" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A216">
+        <v>185</v>
+      </c>
+      <c r="B216">
+        <v>27</v>
+      </c>
+      <c r="C216" t="s">
+        <v>11</v>
+      </c>
+      <c r="D216" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A217">
+        <v>186</v>
+      </c>
+      <c r="B217">
+        <v>27</v>
+      </c>
+      <c r="C217" t="s">
+        <v>12</v>
+      </c>
+      <c r="D217" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A218">
+        <v>187</v>
+      </c>
+      <c r="B218">
+        <v>27</v>
+      </c>
+      <c r="C218" t="s">
+        <v>13</v>
+      </c>
+      <c r="D218" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A219">
+        <v>188</v>
+      </c>
+      <c r="B219">
+        <v>27</v>
+      </c>
+      <c r="C219" t="s">
+        <v>14</v>
+      </c>
+      <c r="D219" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A220">
+        <v>189</v>
+      </c>
+      <c r="B220">
+        <v>28</v>
+      </c>
+      <c r="C220" t="s">
+        <v>2</v>
+      </c>
+      <c r="D220" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A221">
+        <v>190</v>
+      </c>
+      <c r="B221">
+        <v>28</v>
+      </c>
+      <c r="C221" t="s">
+        <v>6</v>
+      </c>
+      <c r="D221" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A222">
+        <v>191</v>
+      </c>
+      <c r="B222">
+        <v>28</v>
+      </c>
+      <c r="C222" t="s">
+        <v>7</v>
+      </c>
+      <c r="D222" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A223">
+        <v>192</v>
+      </c>
+      <c r="B223">
+        <v>28</v>
+      </c>
+      <c r="C223" t="s">
+        <v>8</v>
+      </c>
+      <c r="D223" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A224">
+        <v>193</v>
+      </c>
+      <c r="B224">
+        <v>28</v>
+      </c>
+      <c r="C224" t="s">
+        <v>11</v>
+      </c>
+      <c r="D224" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A225">
+        <v>194</v>
+      </c>
+      <c r="B225">
+        <v>28</v>
+      </c>
+      <c r="C225" t="s">
+        <v>12</v>
+      </c>
+      <c r="D225" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A226">
+        <v>195</v>
+      </c>
+      <c r="B226">
+        <v>28</v>
+      </c>
+      <c r="C226" t="s">
+        <v>13</v>
+      </c>
+      <c r="D226" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A227">
+        <v>196</v>
+      </c>
+      <c r="B227">
+        <v>28</v>
+      </c>
+      <c r="C227" t="s">
+        <v>14</v>
+      </c>
+      <c r="D227" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:D7">
     <sortCondition ref="B1:B7"/>

--- a/psychopy_experiment/conditions/conditions.xlsx
+++ b/psychopy_experiment/conditions/conditions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erang\Desktop\Reading_task\psychopy_experiment\conditions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79467758-28FD-4F66-A175-EF1688197454}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA1F8895-465A-4276-9A64-966EC8DA0823}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="16">
   <si>
     <t>PID</t>
   </si>
@@ -396,10 +396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D227"/>
+  <dimension ref="A1:D259"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A204" workbookViewId="0">
-      <selection activeCell="G223" sqref="G223"/>
+    <sheetView tabSelected="1" topLeftCell="A236" workbookViewId="0">
+      <selection activeCell="H256" sqref="H256"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3586,6 +3586,454 @@
         <v>3</v>
       </c>
     </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A228">
+        <v>197</v>
+      </c>
+      <c r="B228">
+        <v>29</v>
+      </c>
+      <c r="C228" t="s">
+        <v>2</v>
+      </c>
+      <c r="D228" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A229">
+        <v>198</v>
+      </c>
+      <c r="B229">
+        <v>29</v>
+      </c>
+      <c r="C229" t="s">
+        <v>6</v>
+      </c>
+      <c r="D229" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A230">
+        <v>199</v>
+      </c>
+      <c r="B230">
+        <v>29</v>
+      </c>
+      <c r="C230" t="s">
+        <v>7</v>
+      </c>
+      <c r="D230" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A231">
+        <v>200</v>
+      </c>
+      <c r="B231">
+        <v>29</v>
+      </c>
+      <c r="C231" t="s">
+        <v>8</v>
+      </c>
+      <c r="D231" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A232">
+        <v>201</v>
+      </c>
+      <c r="B232">
+        <v>29</v>
+      </c>
+      <c r="C232" t="s">
+        <v>11</v>
+      </c>
+      <c r="D232" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A233">
+        <v>202</v>
+      </c>
+      <c r="B233">
+        <v>29</v>
+      </c>
+      <c r="C233" t="s">
+        <v>12</v>
+      </c>
+      <c r="D233" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A234">
+        <v>203</v>
+      </c>
+      <c r="B234">
+        <v>29</v>
+      </c>
+      <c r="C234" t="s">
+        <v>13</v>
+      </c>
+      <c r="D234" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A235">
+        <v>204</v>
+      </c>
+      <c r="B235">
+        <v>29</v>
+      </c>
+      <c r="C235" t="s">
+        <v>14</v>
+      </c>
+      <c r="D235" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A236">
+        <v>205</v>
+      </c>
+      <c r="B236">
+        <v>30</v>
+      </c>
+      <c r="C236" t="s">
+        <v>2</v>
+      </c>
+      <c r="D236" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A237">
+        <v>206</v>
+      </c>
+      <c r="B237">
+        <v>30</v>
+      </c>
+      <c r="C237" t="s">
+        <v>6</v>
+      </c>
+      <c r="D237" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A238">
+        <v>207</v>
+      </c>
+      <c r="B238">
+        <v>30</v>
+      </c>
+      <c r="C238" t="s">
+        <v>7</v>
+      </c>
+      <c r="D238" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A239">
+        <v>208</v>
+      </c>
+      <c r="B239">
+        <v>30</v>
+      </c>
+      <c r="C239" t="s">
+        <v>8</v>
+      </c>
+      <c r="D239" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A240">
+        <v>209</v>
+      </c>
+      <c r="B240">
+        <v>30</v>
+      </c>
+      <c r="C240" t="s">
+        <v>11</v>
+      </c>
+      <c r="D240" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A241">
+        <v>210</v>
+      </c>
+      <c r="B241">
+        <v>30</v>
+      </c>
+      <c r="C241" t="s">
+        <v>12</v>
+      </c>
+      <c r="D241" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A242">
+        <v>211</v>
+      </c>
+      <c r="B242">
+        <v>30</v>
+      </c>
+      <c r="C242" t="s">
+        <v>13</v>
+      </c>
+      <c r="D242" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A243">
+        <v>212</v>
+      </c>
+      <c r="B243">
+        <v>30</v>
+      </c>
+      <c r="C243" t="s">
+        <v>14</v>
+      </c>
+      <c r="D243" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A244">
+        <v>213</v>
+      </c>
+      <c r="B244">
+        <v>31</v>
+      </c>
+      <c r="C244" t="s">
+        <v>2</v>
+      </c>
+      <c r="D244" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A245">
+        <v>214</v>
+      </c>
+      <c r="B245">
+        <v>31</v>
+      </c>
+      <c r="C245" t="s">
+        <v>6</v>
+      </c>
+      <c r="D245" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A246">
+        <v>215</v>
+      </c>
+      <c r="B246">
+        <v>31</v>
+      </c>
+      <c r="C246" t="s">
+        <v>7</v>
+      </c>
+      <c r="D246" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A247">
+        <v>216</v>
+      </c>
+      <c r="B247">
+        <v>31</v>
+      </c>
+      <c r="C247" t="s">
+        <v>8</v>
+      </c>
+      <c r="D247" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A248">
+        <v>217</v>
+      </c>
+      <c r="B248">
+        <v>31</v>
+      </c>
+      <c r="C248" t="s">
+        <v>11</v>
+      </c>
+      <c r="D248" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A249">
+        <v>218</v>
+      </c>
+      <c r="B249">
+        <v>31</v>
+      </c>
+      <c r="C249" t="s">
+        <v>12</v>
+      </c>
+      <c r="D249" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A250">
+        <v>219</v>
+      </c>
+      <c r="B250">
+        <v>31</v>
+      </c>
+      <c r="C250" t="s">
+        <v>13</v>
+      </c>
+      <c r="D250" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A251">
+        <v>220</v>
+      </c>
+      <c r="B251">
+        <v>31</v>
+      </c>
+      <c r="C251" t="s">
+        <v>14</v>
+      </c>
+      <c r="D251" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A252">
+        <v>221</v>
+      </c>
+      <c r="B252">
+        <v>32</v>
+      </c>
+      <c r="C252" t="s">
+        <v>2</v>
+      </c>
+      <c r="D252" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A253">
+        <v>222</v>
+      </c>
+      <c r="B253">
+        <v>32</v>
+      </c>
+      <c r="C253" t="s">
+        <v>6</v>
+      </c>
+      <c r="D253" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A254">
+        <v>223</v>
+      </c>
+      <c r="B254">
+        <v>32</v>
+      </c>
+      <c r="C254" t="s">
+        <v>7</v>
+      </c>
+      <c r="D254" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A255">
+        <v>224</v>
+      </c>
+      <c r="B255">
+        <v>32</v>
+      </c>
+      <c r="C255" t="s">
+        <v>8</v>
+      </c>
+      <c r="D255" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A256">
+        <v>225</v>
+      </c>
+      <c r="B256">
+        <v>32</v>
+      </c>
+      <c r="C256" t="s">
+        <v>11</v>
+      </c>
+      <c r="D256" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A257">
+        <v>226</v>
+      </c>
+      <c r="B257">
+        <v>32</v>
+      </c>
+      <c r="C257" t="s">
+        <v>12</v>
+      </c>
+      <c r="D257" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A258">
+        <v>227</v>
+      </c>
+      <c r="B258">
+        <v>32</v>
+      </c>
+      <c r="C258" t="s">
+        <v>13</v>
+      </c>
+      <c r="D258" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A259">
+        <v>228</v>
+      </c>
+      <c r="B259">
+        <v>32</v>
+      </c>
+      <c r="C259" t="s">
+        <v>14</v>
+      </c>
+      <c r="D259" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:D7">
     <sortCondition ref="B1:B7"/>

--- a/psychopy_experiment/conditions/conditions.xlsx
+++ b/psychopy_experiment/conditions/conditions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erang\Desktop\Reading_task\psychopy_experiment\conditions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03FED074-9014-4D4E-8F4F-977E764A2D85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C98D3B50-0C3F-4C81-8254-3DFD4CA2DE91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="16">
   <si>
     <t>PID</t>
   </si>
@@ -58,16 +58,37 @@
   </si>
   <si>
     <t>practice2</t>
+  </si>
+  <si>
+    <t>R5</t>
+  </si>
+  <si>
+    <t>R6</t>
+  </si>
+  <si>
+    <t>R7</t>
+  </si>
+  <si>
+    <t>R8</t>
+  </si>
+  <si>
+    <t>Index</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -375,231 +396,625 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:D43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="16.44140625" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" customWidth="1"/>
+    <col min="3" max="3" width="16.44140625" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
         <v>-1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
         <v>-1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
         <v>1</v>
       </c>
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
       <c r="C4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
         <v>1</v>
       </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
       <c r="C5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
         <v>1</v>
       </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
       <c r="C6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
         <v>1</v>
       </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
       <c r="C7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>2</v>
-      </c>
-      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>2</v>
-      </c>
-      <c r="B9" t="s">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+      <c r="D9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>2</v>
-      </c>
-      <c r="B10" t="s">
-        <v>7</v>
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="D10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>2</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="D11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>3</v>
-      </c>
-      <c r="B12" t="s">
-        <v>2</v>
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
       </c>
       <c r="C12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>3</v>
-      </c>
-      <c r="B13" t="s">
-        <v>6</v>
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+      <c r="D13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>3</v>
-      </c>
-      <c r="B14" t="s">
-        <v>7</v>
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
       </c>
       <c r="C14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="D14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>3</v>
-      </c>
-      <c r="B15" t="s">
-        <v>8</v>
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
       </c>
       <c r="C15" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="D15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>4</v>
-      </c>
-      <c r="B16" t="s">
-        <v>2</v>
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="D16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>4</v>
-      </c>
-      <c r="B17" t="s">
-        <v>6</v>
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
       </c>
       <c r="C17" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+      <c r="D17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>4</v>
-      </c>
-      <c r="B18" t="s">
-        <v>7</v>
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>4</v>
       </c>
       <c r="C18" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="D18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>4</v>
-      </c>
-      <c r="B19" t="s">
-        <v>8</v>
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>4</v>
       </c>
       <c r="C19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>5</v>
+      </c>
+      <c r="C20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>5</v>
+      </c>
+      <c r="C21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>5</v>
+      </c>
+      <c r="C22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>5</v>
+      </c>
+      <c r="C23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>6</v>
+      </c>
+      <c r="C24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>6</v>
+      </c>
+      <c r="C25" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>6</v>
+      </c>
+      <c r="C26" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>6</v>
+      </c>
+      <c r="C27" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>7</v>
+      </c>
+      <c r="C28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>7</v>
+      </c>
+      <c r="C29" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>7</v>
+      </c>
+      <c r="C30" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>7</v>
+      </c>
+      <c r="C31" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>8</v>
+      </c>
+      <c r="C32" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>8</v>
+      </c>
+      <c r="C33" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>8</v>
+      </c>
+      <c r="C34" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>8</v>
+      </c>
+      <c r="C35" t="s">
+        <v>14</v>
+      </c>
+      <c r="D35" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>10</v>
+      </c>
+      <c r="C36" t="s">
+        <v>2</v>
+      </c>
+      <c r="D36" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>10</v>
+      </c>
+      <c r="C37" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>10</v>
+      </c>
+      <c r="C38" t="s">
+        <v>7</v>
+      </c>
+      <c r="D38" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>10</v>
+      </c>
+      <c r="C39" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>9</v>
+      </c>
+      <c r="C40" t="s">
+        <v>11</v>
+      </c>
+      <c r="D40" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>9</v>
+      </c>
+      <c r="C41" t="s">
+        <v>12</v>
+      </c>
+      <c r="D41" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>9</v>
+      </c>
+      <c r="C42" t="s">
+        <v>13</v>
+      </c>
+      <c r="D42" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>9</v>
+      </c>
+      <c r="C43" t="s">
+        <v>14</v>
+      </c>
+      <c r="D43" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C8">
-    <sortCondition ref="A1:A8"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:D8">
+    <sortCondition ref="B1:B8"/>
   </sortState>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>